--- a/Document/SWP391-AppDevProject_Weekly Report 1.xlsx
+++ b/Document/SWP391-AppDevProject_Weekly Report 1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25714"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA853429-4634-4568-917E-9A1A95D27289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA9321C9-4263-4285-A5CF-35167CDC746D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,7 +208,7 @@
     <t>Design</t>
   </si>
   <si>
-    <t>UI, DB, RESTful API</t>
+    <t>UI, DB, MVC</t>
   </si>
   <si>
     <t>Implement</t>
@@ -666,8 +666,8 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>

--- a/Document/SWP391-AppDevProject_Weekly Report 1.xlsx
+++ b/Document/SWP391-AppDevProject_Weekly Report 1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25714"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA9321C9-4263-4285-A5CF-35167CDC746D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE37AE12-CEB8-46C8-8B08-649E8383CCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,7 +136,7 @@
     <t>Divide the structure of a project</t>
   </si>
   <si>
-    <t>Front-end: HTML, CSS, SCSS, JavaScript.   Back-end: Java, Servlet, JSP, MS SQL Server</t>
+    <t>Front-end: HTML, CSS, SCSS, JavaScript , Bootstrap.   Back-end: Java, Servlet, JSP, MS SQL Server</t>
   </si>
   <si>
     <t>II. Team Contribution</t>
@@ -666,8 +666,8 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <pane ySplit="3" topLeftCell="B4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>

--- a/Document/SWP391-AppDevProject_Weekly Report 1.xlsx
+++ b/Document/SWP391-AppDevProject_Weekly Report 1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25718"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE37AE12-CEB8-46C8-8B08-649E8383CCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6440625D-1BD9-4F04-A599-B7C6BEBC68C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>PROJECT REPORT</t>
   </si>
@@ -185,9 +185,6 @@
   </si>
   <si>
     <t>Pending</t>
-  </si>
-  <si>
-    <t>Learn API</t>
   </si>
   <si>
     <t>Discussion, analysis of ERD diagram.</t>
@@ -296,7 +293,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,6 +303,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -359,6 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,8 +670,8 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="B4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -867,17 +871,13 @@
       <c r="A20" s="6">
         <v>3</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="7"/>
     </row>
     <row r="22" spans="1:4" ht="15.75">
       <c r="A22" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -888,7 +888,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>20</v>
@@ -899,13 +899,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -913,13 +913,13 @@
         <v>2</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -927,18 +927,18 @@
         <v>3</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75">
       <c r="A28" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="13.5">
@@ -946,13 +946,13 @@
         <v>6</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="33">
@@ -960,13 +960,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="33">
@@ -974,13 +974,13 @@
         <v>2</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="33">
@@ -988,13 +988,13 @@
         <v>3</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="13.5">

--- a/Document/SWP391-AppDevProject_Weekly Report 1.xlsx
+++ b/Document/SWP391-AppDevProject_Weekly Report 1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25718"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE37AE12-CEB8-46C8-8B08-649E8383CCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{088FAA1F-0F18-46EA-B102-52BCF54F4D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>PROJECT REPORT</t>
   </si>
@@ -185,9 +185,6 @@
   </si>
   <si>
     <t>Pending</t>
-  </si>
-  <si>
-    <t>Learn API</t>
   </si>
   <si>
     <t>Discussion, analysis of ERD diagram.</t>
@@ -296,7 +293,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,6 +303,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -359,6 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,8 +670,8 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="B4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -867,17 +871,13 @@
       <c r="A20" s="6">
         <v>3</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="7"/>
     </row>
     <row r="22" spans="1:4" ht="15.75">
       <c r="A22" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -888,7 +888,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>20</v>
@@ -899,13 +899,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -913,13 +913,13 @@
         <v>2</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -927,18 +927,18 @@
         <v>3</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75">
       <c r="A28" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="13.5">
@@ -946,13 +946,13 @@
         <v>6</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="33">
@@ -960,13 +960,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="33">
@@ -974,13 +974,13 @@
         <v>2</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="33">
@@ -988,13 +988,13 @@
         <v>3</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="13.5">

--- a/Document/SWP391-AppDevProject_Weekly Report 1.xlsx
+++ b/Document/SWP391-AppDevProject_Weekly Report 1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25718"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6440625D-1BD9-4F04-A599-B7C6BEBC68C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{088FAA1F-0F18-46EA-B102-52BCF54F4D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
